--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Dữ Liệu/temp/EmailContentUser.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Dữ Liệu/temp/EmailContentUser.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -46,10 +46,10 @@
     <t>Khoá chính</t>
   </si>
   <si>
-    <t>Là duy nhất, theo định dạng là : EC00001</t>
+    <t>Là duy nhất, theo định dạng là : ECxxxxx</t>
   </si>
   <si>
-    <t>EC00001</t>
+    <t>none</t>
   </si>
   <si>
     <t>Mã email của người dùng</t>
@@ -64,9 +64,6 @@
     <t>Tham chiếu đến user_id trong table User</t>
   </si>
   <si>
-    <t>US00001</t>
-  </si>
-  <si>
     <t>Mã user</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Tham chiếu đến sending_email_setting_id trong table SendingEmailSettingType</t>
   </si>
   <si>
-    <t>ST00001</t>
-  </si>
-  <si>
     <t>Mã phương thức gửi mail</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
   </si>
   <si>
     <t>Tham chiếu đến email_content_system_id trong table EmailContentSystem</t>
-  </si>
-  <si>
-    <t>ES00001</t>
   </si>
   <si>
     <t>Mã email của hệ thống</t>
@@ -119,8 +110,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="24">
@@ -151,82 +142,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,8 +171,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,37 +286,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,7 +302,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +326,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,19 +410,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,139 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +511,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -544,17 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -566,30 +561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,6 +583,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -620,148 +611,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1096,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -1220,10 +1211,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1250,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -1259,13 +1250,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1292,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1301,13 +1292,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1334,20 +1325,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1374,20 +1365,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1439,9 +1430,9 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:26">
       <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="5"/>
@@ -1467,10 +1458,10 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:26">
       <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
